--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>100.8373843333333</v>
+        <v>26.127733</v>
       </c>
       <c r="H2">
-        <v>302.512153</v>
+        <v>78.383199</v>
       </c>
       <c r="I2">
-        <v>0.6551985585448407</v>
+        <v>0.2666992864894373</v>
       </c>
       <c r="J2">
-        <v>0.6551985585448408</v>
+        <v>0.2666992864894374</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.425703666666666</v>
+        <v>0.8317113333333332</v>
       </c>
       <c r="N2">
-        <v>4.277111</v>
+        <v>2.495134</v>
       </c>
       <c r="O2">
-        <v>0.04715501820393346</v>
+        <v>0.0263454906755698</v>
       </c>
       <c r="P2">
-        <v>0.04715501820393346</v>
+        <v>0.0263454906755698</v>
       </c>
       <c r="Q2">
-        <v>143.7642285811092</v>
+        <v>21.73073165040733</v>
       </c>
       <c r="R2">
-        <v>1293.878057229983</v>
+        <v>195.576584853666</v>
       </c>
       <c r="S2">
-        <v>0.03089589995537292</v>
+        <v>0.007026323565388588</v>
       </c>
       <c r="T2">
-        <v>0.03089589995537293</v>
+        <v>0.007026323565388592</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>100.8373843333333</v>
+        <v>26.127733</v>
       </c>
       <c r="H3">
-        <v>302.512153</v>
+        <v>78.383199</v>
       </c>
       <c r="I3">
-        <v>0.6551985585448407</v>
+        <v>0.2666992864894373</v>
       </c>
       <c r="J3">
-        <v>0.6551985585448408</v>
+        <v>0.2666992864894374</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>61.843018</v>
       </c>
       <c r="O3">
-        <v>0.6818173855147049</v>
+        <v>0.6529848313028861</v>
       </c>
       <c r="P3">
-        <v>0.6818173855147048</v>
+        <v>0.6529848313028862</v>
       </c>
       <c r="Q3">
-        <v>2078.696058133084</v>
+        <v>538.6059540727314</v>
       </c>
       <c r="R3">
-        <v>18708.26452319775</v>
+        <v>4847.453586654582</v>
       </c>
       <c r="S3">
-        <v>0.4467257681800466</v>
+        <v>0.1741505885969053</v>
       </c>
       <c r="T3">
-        <v>0.4467257681800466</v>
+        <v>0.1741505885969054</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>100.8373843333333</v>
+        <v>26.127733</v>
       </c>
       <c r="H4">
-        <v>302.512153</v>
+        <v>78.383199</v>
       </c>
       <c r="I4">
-        <v>0.6551985585448407</v>
+        <v>0.2666992864894373</v>
       </c>
       <c r="J4">
-        <v>0.6551985585448408</v>
+        <v>0.2666992864894374</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.194356666666666</v>
+        <v>10.12334933333333</v>
       </c>
       <c r="N4">
-        <v>24.58307</v>
+        <v>30.370048</v>
       </c>
       <c r="O4">
-        <v>0.2710275962813615</v>
+        <v>0.3206696780215441</v>
       </c>
       <c r="P4">
-        <v>0.2710275962813615</v>
+        <v>0.3206696780215441</v>
       </c>
       <c r="Q4">
-        <v>826.2974925610788</v>
+        <v>264.5001684470614</v>
       </c>
       <c r="R4">
-        <v>7436.67743304971</v>
+        <v>2380.501516023552</v>
       </c>
       <c r="S4">
-        <v>0.1775768904094211</v>
+        <v>0.08552237432714339</v>
       </c>
       <c r="T4">
-        <v>0.1775768904094211</v>
+        <v>0.08552237432714342</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>71.72390799999999</v>
       </c>
       <c r="I5">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700376</v>
       </c>
       <c r="J5">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700377</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.425703666666666</v>
+        <v>0.8317113333333332</v>
       </c>
       <c r="N5">
-        <v>4.277111</v>
+        <v>2.495134</v>
       </c>
       <c r="O5">
-        <v>0.04715501820393346</v>
+        <v>0.0263454906755698</v>
       </c>
       <c r="P5">
-        <v>0.04715501820393346</v>
+        <v>0.0263454906755698</v>
       </c>
       <c r="Q5">
-        <v>34.08567954108754</v>
+        <v>19.88452905151911</v>
       </c>
       <c r="R5">
-        <v>306.7711158697879</v>
+        <v>178.960761463672</v>
       </c>
       <c r="S5">
-        <v>0.007325241858882845</v>
+        <v>0.006429380165795006</v>
       </c>
       <c r="T5">
-        <v>0.007325241858882845</v>
+        <v>0.00642938016579501</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>71.72390799999999</v>
       </c>
       <c r="I6">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700376</v>
       </c>
       <c r="J6">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700377</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>61.843018</v>
       </c>
       <c r="O6">
-        <v>0.6818173855147049</v>
+        <v>0.6529848313028861</v>
       </c>
       <c r="P6">
-        <v>0.6818173855147048</v>
+        <v>0.6529848313028862</v>
       </c>
       <c r="Q6">
         <v>492.8469926082604</v>
@@ -818,10 +818,10 @@
         <v>4435.622933474344</v>
       </c>
       <c r="S6">
-        <v>0.1059161345434442</v>
+        <v>0.1593550780527634</v>
       </c>
       <c r="T6">
-        <v>0.1059161345434442</v>
+        <v>0.1593550780527634</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>71.72390799999999</v>
       </c>
       <c r="I7">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700376</v>
       </c>
       <c r="J7">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700377</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.194356666666666</v>
+        <v>10.12334933333333</v>
       </c>
       <c r="N7">
-        <v>24.58307</v>
+        <v>30.370048</v>
       </c>
       <c r="O7">
-        <v>0.2710275962813615</v>
+        <v>0.3206696780215441</v>
       </c>
       <c r="P7">
-        <v>0.2710275962813615</v>
+        <v>0.3206696780215441</v>
       </c>
       <c r="Q7">
-        <v>195.9104278930622</v>
+        <v>242.0287254119538</v>
       </c>
       <c r="R7">
-        <v>1763.19385103756</v>
+        <v>2178.258528707584</v>
       </c>
       <c r="S7">
-        <v>0.04210246902262932</v>
+        <v>0.07825655225147922</v>
       </c>
       <c r="T7">
-        <v>0.04210246902262932</v>
+        <v>0.07825655225147925</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.15819666666667</v>
+        <v>47.93131266666666</v>
       </c>
       <c r="H8">
-        <v>87.47459000000001</v>
+        <v>143.793938</v>
       </c>
       <c r="I8">
-        <v>0.1894575960302029</v>
+        <v>0.489259703040525</v>
       </c>
       <c r="J8">
-        <v>0.1894575960302029</v>
+        <v>0.4892597030405251</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.425703666666666</v>
+        <v>0.8317113333333332</v>
       </c>
       <c r="N8">
-        <v>4.277111</v>
+        <v>2.495134</v>
       </c>
       <c r="O8">
-        <v>0.04715501820393346</v>
+        <v>0.0263454906755698</v>
       </c>
       <c r="P8">
-        <v>0.04715501820393346</v>
+        <v>0.0263454906755698</v>
       </c>
       <c r="Q8">
-        <v>41.57094790105444</v>
+        <v>39.86501596641021</v>
       </c>
       <c r="R8">
-        <v>374.13853110949</v>
+        <v>358.785143697692</v>
       </c>
       <c r="S8">
-        <v>0.008933876389677691</v>
+        <v>0.0128897869443862</v>
       </c>
       <c r="T8">
-        <v>0.008933876389677691</v>
+        <v>0.01288978694438621</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.15819666666667</v>
+        <v>47.93131266666666</v>
       </c>
       <c r="H9">
-        <v>87.47459000000001</v>
+        <v>143.793938</v>
       </c>
       <c r="I9">
-        <v>0.1894575960302029</v>
+        <v>0.489259703040525</v>
       </c>
       <c r="J9">
-        <v>0.1894575960302029</v>
+        <v>0.4892597030405251</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>61.843018</v>
       </c>
       <c r="O9">
-        <v>0.6818173855147049</v>
+        <v>0.6529848313028861</v>
       </c>
       <c r="P9">
-        <v>0.6818173855147048</v>
+        <v>0.6529848313028862</v>
       </c>
       <c r="Q9">
-        <v>601.0769604347356</v>
+        <v>988.0723440027648</v>
       </c>
       <c r="R9">
-        <v>5409.69264391262</v>
+        <v>8892.651096024883</v>
       </c>
       <c r="S9">
-        <v>0.1291754827912141</v>
+        <v>0.3194791646532174</v>
       </c>
       <c r="T9">
-        <v>0.1291754827912141</v>
+        <v>0.3194791646532175</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.15819666666667</v>
+        <v>47.93131266666666</v>
       </c>
       <c r="H10">
-        <v>87.47459000000001</v>
+        <v>143.793938</v>
       </c>
       <c r="I10">
-        <v>0.1894575960302029</v>
+        <v>0.489259703040525</v>
       </c>
       <c r="J10">
-        <v>0.1894575960302029</v>
+        <v>0.4892597030405251</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.194356666666666</v>
+        <v>10.12334933333333</v>
       </c>
       <c r="N10">
-        <v>24.58307</v>
+        <v>30.370048</v>
       </c>
       <c r="O10">
-        <v>0.2710275962813615</v>
+        <v>0.3206696780215441</v>
       </c>
       <c r="P10">
-        <v>0.2710275962813615</v>
+        <v>0.3206696780215441</v>
       </c>
       <c r="Q10">
-        <v>238.9326632434778</v>
+        <v>485.2254221298915</v>
       </c>
       <c r="R10">
-        <v>2150.3939691913</v>
+        <v>4367.028799169024</v>
       </c>
       <c r="S10">
-        <v>0.05134823684931112</v>
+        <v>0.1568907514429214</v>
       </c>
       <c r="T10">
-        <v>0.05134823684931112</v>
+        <v>0.1568907514429215</v>
       </c>
     </row>
   </sheetData>
